--- a/biology/Botanique/Rizière/Rizière.xlsx
+++ b/biology/Botanique/Rizière/Rizière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rizi%C3%A8re</t>
+          <t>Rizière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rizièreÉcouter est une parcelle — ou un ensemble de parcelles — réservée à la culture du riz ou riziculture, et dans laquelle, en général, on inonde la culture. 
 On a tendance à faire l'amalgame entre la riziculture et la culture en terrasses, mais d'une part la riziculture ne se fait pas nécessairement en terrasse, et d'autre part d'autres cultures peuvent se faire en terrasse : vignobles, vergers, etc. Le terme s'applique à une grande diversité de milieux. Les rizières diffèrent par la façon dont l'eau est gérée, par leur profondeur, leur altitude et les méthodes de cultures.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rizi%C3%A8re</t>
+          <t>Rizière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sur terrain sec
-Ce type de culture a, au moins, existé dans les premiers temps de la culture du riz, en particulier en Chine vers 7000-5000 AEC en Corée au cours de la période de la céramique Mumun classique (v. 850 AEC) et à Kyūshū, au début de la période Yayoi.
-La rizière inondée
-Cultivée sur un sol piétiné dans des champs entourés de diguettes, la hauteur d'eau peut varier entre 0-25 cm (eau peu profonde) jusqu'à 25–50 cm (profondeur moyenne), cette hauteur d'eau étant justifiée par la très grande consommation hydrique de cette culture : il faut 4 000 litres d'eau pour produire un kilogramme de riz. L'eau provient de la pluie ou par le ruissellement provenant d'un bassin. La riziculture inondée occupe 17 % de la production mondiale de riz.
-Selon son substrat (type de sol/sédiment plus ou moins riche en bactéries anaérobies), selon son mode de culture (avec ou sans rotation avec d'autres plantes) et selon son mode de gestion (durée d'inondation, apports d'azote) et sa localisation, une rizière peut être plus ou moins source de gaz à effet de serre (CO2 et surtout méthane, ou encore oxyde nitreux). Une rizière émet généralement moins de N2O si inondée en permanence, mais elle émet alors beaucoup plus de CH4[1].
+          <t>Sur terrain sec</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de culture a, au moins, existé dans les premiers temps de la culture du riz, en particulier en Chine vers 7000-5000 AEC en Corée au cours de la période de la céramique Mumun classique (v. 850 AEC) et à Kyūshū, au début de la période Yayoi.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rizi%C3%A8re</t>
+          <t>Rizière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,60 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dispositions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La rizière inondée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cultivée sur un sol piétiné dans des champs entourés de diguettes, la hauteur d'eau peut varier entre 0-25 cm (eau peu profonde) jusqu'à 25–50 cm (profondeur moyenne), cette hauteur d'eau étant justifiée par la très grande consommation hydrique de cette culture : il faut 4 000 litres d'eau pour produire un kilogramme de riz. L'eau provient de la pluie ou par le ruissellement provenant d'un bassin. La riziculture inondée occupe 17 % de la production mondiale de riz.
+Selon son substrat (type de sol/sédiment plus ou moins riche en bactéries anaérobies), selon son mode de culture (avec ou sans rotation avec d'autres plantes) et selon son mode de gestion (durée d'inondation, apports d'azote) et sa localisation, une rizière peut être plus ou moins source de gaz à effet de serre (CO2 et surtout méthane, ou encore oxyde nitreux). Une rizière émet généralement moins de N2O si inondée en permanence, mais elle émet alors beaucoup plus de CH4.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rizière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rizi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Localisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Afrique
-Madagascar
-À Madagascar, la consommation annuelle moyenne de riz est de 130 kg par personne, l'une des plus importantes au monde.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>À Madagascar, la consommation annuelle moyenne de riz est de 130 kg par personne, l'une des plus importantes au monde.
 Dans la majorité des cas, le riz (vary en malgache) est cultivé par irrigation (1 054 381 ha).
 Quant à lui, le tavy renvoie à la culture du riz pluvial. Les terres sont inondées par brûlage de la forêt tropicale (135 966 ha). Critiqué, à cause de la déforestation que cette méthode implique, le tavy est encore largement pratiqué par les agriculteurs malgaches. Ceux-ci y trouvent un compromis entre les risques climatiques, la disponibilité en main-d'œuvre et la question de la sécurité alimentaire.
 Tanety signifie colline. Mais tanety signifie aussi « faire pousser du riz sur les collines ». Cela est réalisé sur les pentes herbeuses des Hautes-Terres qui ont été déboisées pour l'exploitation du charbon de bois.
@@ -560,26 +620,175 @@
 le « Vary lava », qui est un riz translucide à long et gros grain. C'est un riz de luxe ;
 le « Vary Makalioka », un riz translucide à grain long et fin ;
 le « Vary Rojofotsy » est un riz à grain mi-long ;
-le « Vary mena », ou riz rouge, qui se trouve exclusivement à Madagascar.
-Asie
-Chine
-Japon
-Au Japon, des rizières sont exploitées sur tout le territoire, de l'île de Hokkaidō au nord jusqu'aux îles Ryūkyū au sud de l'archipel japonais[2].
+le « Vary mena », ou riz rouge, qui se trouve exclusivement à Madagascar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rizière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rizi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Localisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rizière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rizi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Localisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, des rizières sont exploitées sur tout le territoire, de l'île de Hokkaidō au nord jusqu'aux îles Ryūkyū au sud de l'archipel japonais.
 La plupart des champs de riz sont situés dans des plaines, comme la plaine de Kantō, ou dans les bassins des principaux cours d'eau. La culture en terrasse est cependant aussi répandue.
-Afin de prévenir la surproduction de riz, le gouvernement japonais a mis en place un programme de réduction de la superficie des surfaces cultivables destinées à la culture du riz. Ainsi, de 1995 à 2010, l'étendue de l'ensemble des rizières japonaises est passée de 2 100 000 ha à 1 600 000 ha[2]. De plus, du fait du vieillissement de la population japonaise, de nombreuses fermes agricoles sont abandonnées.
+Afin de prévenir la surproduction de riz, le gouvernement japonais a mis en place un programme de réduction de la superficie des surfaces cultivables destinées à la culture du riz. Ainsi, de 1995 à 2010, l'étendue de l'ensemble des rizières japonaises est passée de 2 100 000 ha à 1 600 000 ha. De plus, du fait du vieillissement de la population japonaise, de nombreuses fermes agricoles sont abandonnées.
 Remarquablement, de nombreuses municipalités japonaises entretiennent des rizières réservées à une forme originale de land art : le tambo art.
-Philippines
-Laos
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rizière</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rizi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Localisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Laos</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Dans le Si Phan Don, rizières lumineuses de Don Det, devant une maison traditionnelle, sous des nuages lourds et gris pendant la mousson, avec une femme âgée marchant à travers.
 			Rizières vertes de Don Det dans le Si Phan Don, avec deux différentes couleurs de parcelles de champ (une opaque et une miroir), avec un arbre se réfléchissant dans l'eau, sous un ciel nuageux en juillet 2018 pendant la mousson. Juillet 2018.
 			Rizières vertes ensoleillées de Don Det, avec deux arbres se réfléchissant partiellement dans l'eau, avec de longues ombres en fin d'après-midi, pendant la mousson. Aout 2018.
 			Rizières vertes et ensoleillées avec des arbres et de longues ombres à l'heure dorée, pendant la mousson, à Don Det, Si Phan Don, Laos. Aout 2019.
 			Parcelle carrée de rizière verte isolée au milieu de champs terreux, hutte au toit de paille et montagnes karstiques, sous des nuages colorés au coucher du soleil, dans la campagne de Vang Vieng, Province de Vientiane, Laos, durant la mousson. Juin 2020.
 			Gerbes de riz vert plantées dans une rizière, à Don Det, Si Phan Don, Laos. Une fine pellicule opaque à la surface de l'eau accueille les longues ombres couchées des tiges. Juillet 2020.
-Europe
-France
-En 2006 sur le territoire français, selon la base Corine Land Cover, il y a 37 119 hectares de rizières répartis sur onze communes de Camargue (sept en Gard et quatre en Bouches-du-Rhône) dont 23 125 hectares sur la seule commune d’Arles. Les dix autres communes sont : Fontvieille, Port-Saint-Louis-du-Rhône, Saintes-Maries-de-la-Mer, Beaucaire, Bellegarde, Le Cailar, Fourques, Saint-Gilles, Saint-Laurent-d'Aigouze et Vauvert. Cette superficie est en légère augmentation, elle était de 35 359 hectares en 1990 et 35 730 hectares en 2000[3].
-Italie</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rizière</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rizi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Localisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006 sur le territoire français, selon la base Corine Land Cover, il y a 37 119 hectares de rizières répartis sur onze communes de Camargue (sept en Gard et quatre en Bouches-du-Rhône) dont 23 125 hectares sur la seule commune d’Arles. Les dix autres communes sont : Fontvieille, Port-Saint-Louis-du-Rhône, Saintes-Maries-de-la-Mer, Beaucaire, Bellegarde, Le Cailar, Fourques, Saint-Gilles, Saint-Laurent-d'Aigouze et Vauvert. Cette superficie est en légère augmentation, elle était de 35 359 hectares en 1990 et 35 730 hectares en 2000.
+</t>
         </is>
       </c>
     </row>
